--- a/算法/图解.xlsx
+++ b/算法/图解.xlsx
@@ -237,10 +237,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3314</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1180708" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -250,7 +250,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2686050" y="1695450"/>
+          <a:off x="5250346" y="1220857"/>
           <a:ext cx="1180708" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -922,16 +922,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324678</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>448503</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>153229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -940,8 +940,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191000" y="3943350"/>
-          <a:ext cx="809625" cy="266700"/>
+          <a:off x="9841395" y="1623392"/>
+          <a:ext cx="811282" cy="269185"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -980,16 +980,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>267528</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391353</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143704</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -998,8 +998,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="4619625"/>
-          <a:ext cx="809625" cy="266700"/>
+          <a:off x="9096789" y="2307121"/>
+          <a:ext cx="811281" cy="271670"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1038,16 +1038,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>27747</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>77029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>151571</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>172279</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1056,8 +1056,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5267325" y="4648200"/>
-          <a:ext cx="809625" cy="266700"/>
+          <a:off x="10919377" y="2338181"/>
+          <a:ext cx="811281" cy="269185"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1096,16 +1096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>543754</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324679</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>172279</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1116,8 +1116,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3724276" y="4076700"/>
-          <a:ext cx="466725" cy="495300"/>
+          <a:off x="9373015" y="1756742"/>
+          <a:ext cx="468381" cy="502754"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -1145,16 +1145,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>185738</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>448503</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>433388</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>77029</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1166,8 +1166,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5000625" y="4076700"/>
-          <a:ext cx="671513" cy="571500"/>
+          <a:off x="10652677" y="1757985"/>
+          <a:ext cx="672341" cy="580196"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -1195,16 +1195,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>248478</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>372303</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>153229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1213,8 +1213,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="5314950"/>
-          <a:ext cx="809625" cy="266700"/>
+          <a:off x="8390282" y="3014870"/>
+          <a:ext cx="811282" cy="269185"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1253,16 +1253,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>404814</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>653292</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>267529</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>55493</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1274,8 +1274,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3148014" y="4752974"/>
-          <a:ext cx="300037" cy="561975"/>
+          <a:off x="8795096" y="2442955"/>
+          <a:ext cx="301694" cy="569429"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -1303,16 +1303,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>65847</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>189671</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>124654</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1321,8 +1321,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3933825" y="5286375"/>
-          <a:ext cx="809625" cy="266700"/>
+          <a:off x="9582564" y="2983810"/>
+          <a:ext cx="811281" cy="271670"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1361,16 +1361,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391353</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>472316</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26919</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1382,8 +1382,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="4752975"/>
-          <a:ext cx="80963" cy="533400"/>
+          <a:off x="9908070" y="2442956"/>
+          <a:ext cx="80963" cy="540854"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -1411,16 +1411,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>505653</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>67504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>629478</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162754</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1429,8 +1429,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5057775" y="5324475"/>
-          <a:ext cx="809625" cy="266700"/>
+          <a:off x="10709827" y="3024395"/>
+          <a:ext cx="811281" cy="269185"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1469,16 +1469,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>661987</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>27746</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>36443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>223009</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>67503</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1490,8 +1490,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="5267324" y="4781549"/>
-          <a:ext cx="195263" cy="542925"/>
+          <a:off x="10919376" y="2471530"/>
+          <a:ext cx="195263" cy="552864"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector4">
           <a:avLst>
@@ -1522,12 +1522,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1180708" cy="436786"/>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>118857</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28162</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1180708" cy="261730"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="TextBox 41"/>
@@ -1535,8 +1535,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2714625" y="3581400"/>
-          <a:ext cx="1180708" cy="436786"/>
+          <a:off x="9635574" y="1245705"/>
+          <a:ext cx="1180708" cy="261730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1559,7 +1559,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -1605,16 +1605,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>423863</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>189671</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>672341</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26919</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1625,8 +1625,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3371850" y="4886325"/>
-          <a:ext cx="481013" cy="400050"/>
+          <a:off x="9018932" y="2578791"/>
+          <a:ext cx="482670" cy="405019"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -1654,16 +1654,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>423863</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>672341</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>208722</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>162753</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1674,8 +1674,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3783807" y="4955381"/>
-          <a:ext cx="361950" cy="223837"/>
+          <a:off x="9430061" y="2650332"/>
+          <a:ext cx="366919" cy="223837"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -1703,16 +1703,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>18220</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>153230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42033</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57980</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1723,8 +1723,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="4031456" y="4750594"/>
-          <a:ext cx="1104900" cy="23813"/>
+          <a:off x="9673154" y="2441818"/>
+          <a:ext cx="1122293" cy="23813"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -1752,16 +1752,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161096</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>172279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>572328</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1770,8 +1770,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="4376738" y="4567237"/>
-          <a:ext cx="1085850" cy="409575"/>
+          <a:off x="10019264" y="2257633"/>
+          <a:ext cx="1103243" cy="411232"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -1799,16 +1799,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>185738</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>434216</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>172279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>629478</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>26919</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1820,8 +1820,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5672138" y="4914900"/>
-          <a:ext cx="195262" cy="542925"/>
+          <a:off x="11325846" y="2607366"/>
+          <a:ext cx="195262" cy="550379"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector4">
           <a:avLst>
@@ -64992,6 +64992,61 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596349</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="791" name="右箭头 790"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7470914" y="1797327"/>
+          <a:ext cx="1374913" cy="563217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>中序线索二叉树</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -65289,8 +65344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I1446:N1451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C189" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S204" sqref="S204"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
